--- a/Data/F022.FCIC1.STO.LCL.Z.USD.D.xlsx
+++ b/Data/F022.FCIC1.STO.LCL.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C622"/>
+  <dimension ref="A1:C625"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10940,6 +10940,57 @@
         </is>
       </c>
     </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>11-12-2021</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>2384.98593550748</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>12-12-2021</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>2384.98593550748</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>13-12-2021</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>2362.96618689193</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.FCIC1.STO.LCL.Z.USD.D.xlsx
+++ b/Data/F022.FCIC1.STO.LCL.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C625"/>
+  <dimension ref="A1:C626"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -10986,6 +10986,23 @@
         </is>
       </c>
       <c r="C625" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>14-12-2021</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>2379.01944116423</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
         <is>
           <t>OK</t>
         </is>

--- a/Data/F022.FCIC1.STO.LCL.Z.USD.D.xlsx
+++ b/Data/F022.FCIC1.STO.LCL.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C626"/>
+  <dimension ref="A1:C627"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -11003,6 +11003,23 @@
         </is>
       </c>
       <c r="C626" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>15-12-2021</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>2370.58748775581</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
         <is>
           <t>OK</t>
         </is>

--- a/Data/F022.FCIC1.STO.LCL.Z.USD.D.xlsx
+++ b/Data/F022.FCIC1.STO.LCL.Z.USD.D.xlsx
@@ -2856,7 +2856,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">

--- a/Data/F022.FCIC1.STO.LCL.Z.USD.D.xlsx
+++ b/Data/F022.FCIC1.STO.LCL.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C627"/>
+  <dimension ref="A1:C628"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11025,6 +11025,23 @@
         </is>
       </c>
     </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>16-12-2021</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>2364.74846469282</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.FCIC1.STO.LCL.Z.USD.D.xlsx
+++ b/Data/F022.FCIC1.STO.LCL.Z.USD.D.xlsx
@@ -2856,7 +2856,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">

--- a/Data/F022.FCIC1.STO.LCL.Z.USD.D.xlsx
+++ b/Data/F022.FCIC1.STO.LCL.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C628"/>
+  <dimension ref="A1:C629"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11042,6 +11042,23 @@
         </is>
       </c>
     </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>17-12-2021</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>2361.60344525528</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.FCIC1.STO.LCL.Z.USD.D.xlsx
+++ b/Data/F022.FCIC1.STO.LCL.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C629"/>
+  <dimension ref="A1:C632"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11059,6 +11059,57 @@
         </is>
       </c>
     </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>18-12-2021</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>2361.60344525528</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>19-12-2021</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>2361.60344525528</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>20-12-2021</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>2369.99948887502</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.FCIC1.STO.LCL.Z.USD.D.xlsx
+++ b/Data/F022.FCIC1.STO.LCL.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C632"/>
+  <dimension ref="A1:C633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11110,6 +11110,23 @@
         </is>
       </c>
     </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>21-12-2021</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>2324.50547058207</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.FCIC1.STO.LCL.Z.USD.D.xlsx
+++ b/Data/F022.FCIC1.STO.LCL.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C633"/>
+  <dimension ref="A1:C634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -11122,6 +11122,23 @@
         </is>
       </c>
       <c r="C633" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>22-12-2021</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>2309.65556340203</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
         <is>
           <t>OK</t>
         </is>

--- a/Data/F022.FCIC1.STO.LCL.Z.USD.D.xlsx
+++ b/Data/F022.FCIC1.STO.LCL.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C634"/>
+  <dimension ref="A1:C635"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11144,6 +11144,23 @@
         </is>
       </c>
     </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>23-12-2021</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>2316.34789871417</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.FCIC1.STO.LCL.Z.USD.D.xlsx
+++ b/Data/F022.FCIC1.STO.LCL.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C635"/>
+  <dimension ref="A1:C636"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -11156,6 +11156,23 @@
         </is>
       </c>
       <c r="C635" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>24-12-2021</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>2340.966898361</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
